--- a/DataNV/Лагутенко.xlsx
+++ b/DataNV/Лагутенко.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,17 +607,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.02.2024</t>
+          <t>18.04.2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:48:18</t>
+          <t>15:18:40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA023042 від 27.05.2024</t>
+          <t>Наряд-замовлення ЗНGA024572 від 31.07.2024 15:18:40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>27.05.2024 15:15:00</t>
+          <t>18.04.2024 16:38:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>на погодженні гарантійного ремонту в ДК 26249845</t>
+          <t>на погодженні гарантійного ремонту в ДК</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -651,28 +651,28 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>260405.22</v>
+        <v>11643.48</v>
       </c>
       <c r="L2" t="n">
-        <v>32751.68</v>
+        <v>467.88</v>
       </c>
       <c r="M2" t="n">
-        <v>217004.35</v>
+        <v>9702.9</v>
       </c>
       <c r="N2" t="n">
-        <v>27293.07</v>
+        <v>389.9</v>
       </c>
       <c r="O2" t="n">
-        <v>244297.42</v>
+        <v>10092.8</v>
       </c>
       <c r="P2" t="n">
-        <v>86801.74000000001</v>
+        <v>3881.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>293156.9</v>
+        <v>12111.36</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>0.3</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -681,35 +681,35 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Мачоган Марія Григорівна</t>
+          <t>АвтоКапітал ПРАТ</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>+38 (095) 3198952</t>
+          <t>+38 (044) 4420681</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>10. Mercedes-Benz GLE 400 e 4MATIC Coupé</t>
+          <t>01. Mercedes-Benz GLE 300 d 4MATIC</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>BC1000XH</t>
+          <t>Не видано</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>W1NFD4GB2RB055458</t>
+          <t>W1NFB0KB5RB089206</t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>3463</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09.11.2023</t>
+          <t>18.04.2024</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -729,32 +729,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18.04.2024</t>
+          <t>01.05.2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:18:40</t>
+          <t>12:50:49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA024572 від 18.04.2024</t>
+          <t>Наряд-замовлення ЗНGA024911 від 01.05.2024 12:50:49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Погодження</t>
+          <t>Очікування деталей</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.04.2024 16:38:00</t>
+          <t>01.05.2024 14:49:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>на погодженні гарантійного ремонту в ДК</t>
+          <t>167460630180 Рейка кермова. Запчастина замовлена 08.05.24....відсутня на складах постачальника....зроблено пришвидшення</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -772,66 +772,57 @@
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>11643.48</v>
-      </c>
       <c r="L3" t="n">
-        <v>467.88</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9702.9</v>
+        <v>1247.69</v>
       </c>
       <c r="N3" t="n">
-        <v>389.9</v>
+        <v>1039.74</v>
       </c>
       <c r="O3" t="n">
-        <v>10092.8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3881.16</v>
+        <v>1039.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>12111.36</v>
+        <v>1247.69</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>АвтоКапітал ПРАТ</t>
+          <t>ІНГРЕДІЄНТС ТОВ</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>АвтоКапітал ПРАТ</t>
+          <t>ІНГРЕДІЄНТС ТОВ</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>+38 (044) 4420681</t>
+          <t>+38 (098) 8623853</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>01. Mercedes-Benz GLE 300 d 4MATIC</t>
+          <t>02. Mercedes-Benz GLS 400 d 4MATIC</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Не видано</t>
+          <t>HC0001TK</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>W1NFB0KB5RB089206</t>
+          <t>W1NFF2DE2PA938895</t>
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>22013</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18.04.2024</t>
+          <t>28.04.2023</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -847,21 +838,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01.05.2024</t>
+          <t>25.06.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:50:49</t>
+          <t>10:59:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA024911 від 01.05.2024</t>
+          <t>Наряд-замовлення ЗНGA026103 від 25.06.2024 10:59:50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -871,12 +862,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01.05.2024 14:49:00</t>
+          <t>25.06.2024 13:00:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>167460630180 Рейка кермова. Запчастина замовлена 08.05.24....відсутня на складах постачальника....зроблено пришвидшення</t>
+          <t>Очікування запчастин</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -894,62 +885,71 @@
           <t>Не проведен</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>23865.07</v>
+      </c>
       <c r="L4" t="n">
-        <v>1247.69</v>
+        <v>3391.14</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19887.56</v>
       </c>
       <c r="N4" t="n">
-        <v>1039.74</v>
+        <v>2825.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1039.74</v>
+        <v>22713.51</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7955.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1247.69</v>
+        <v>27256.21</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>ІНГРЕДІЄНТС ТОВ</t>
+          <t>АвтоКапітал ПРАТ</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>ІНГРЕДІЄНТС ТОВ</t>
+          <t>РОКСОЛЯНИ РЕЗИДЕНТ ХОЛ ТОВ</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>+38 (098) 8623853</t>
+          <t>+38 (067) 9449443</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>02. Mercedes-Benz GLS 400 d 4MATIC</t>
+          <t>02. Mercedes-Benz G 400 d</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>HC0001TK</t>
+          <t>BC6469OE</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>W1NFF2DE2PA938895</t>
+          <t>W1N4633501X426974</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>22013</v>
+        <v>35241</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>28.04.2023</t>
+          <t>25.05.2022</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -960,31 +960,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09.05.2024</t>
+          <t>25.06.2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:04:38</t>
+          <t>16:44:34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA025078 від 09.05.2024</t>
+          <t>Наряд-замовлення ЗНGA026116 від 31.07.2024 16:44:34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Очікування деталей</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Очікування клієнта. Прануємо закрити ЗН протягом місяця (по прибутті клієнта на сервіс)</t>
+          <t>Виконано</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>26.06.2024 08:18:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1003,28 +1003,28 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>21201.36</v>
+        <v>14282.82</v>
       </c>
       <c r="L5" t="n">
-        <v>935.76</v>
+        <v>2027.48</v>
       </c>
       <c r="M5" t="n">
-        <v>17667.8</v>
+        <v>11902.35</v>
       </c>
       <c r="N5" t="n">
-        <v>779.8</v>
+        <v>1689.57</v>
       </c>
       <c r="O5" t="n">
-        <v>18447.6</v>
+        <v>13591.92</v>
       </c>
       <c r="P5" t="n">
-        <v>7067.12</v>
+        <v>4760.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>22137.12</v>
+        <v>16310.3</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1033,40 +1033,40 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Вербинець Юлія Іванівна</t>
+          <t>СУЗІР'Я ПП</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>+38 (096) 7207046</t>
+          <t>+38 (03249) 46817</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>19. Mercedes-Benz S 580 4MATIC long</t>
+          <t>01. Mercedes-Benz GLE 300 d 4MATIC Coupe</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>ВС0002НВ</t>
+          <t>ВС7999ІЕ</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>W1K6G7GB2PA208767</t>
+          <t>W1NFD0KB0PA877145</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>15961</v>
+        <v>18452</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>30.06.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1077,41 +1077,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.06.2024</t>
+          <t>04.07.2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:59:50</t>
+          <t>09:50:44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026103 від 25.06.2024</t>
+          <t>Наряд-замовлення ЗНGA026275 від 09.07.2024 09:50:44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Очікування деталей</t>
+          <t>Погодження</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>25.06.2024 13:00:00</t>
+          <t>04.07.2024 11:29:44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Очікування запчастин</t>
+          <t>Очікування оплати від страхової</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Гарантійний ремонт АвтоКапітал</t>
+          <t>Відновлювальний ремонт</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1125,70 +1125,70 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>23865.07</v>
+        <v>32727.41</v>
       </c>
       <c r="L6" t="n">
-        <v>3391.14</v>
+        <v>3171.96</v>
       </c>
       <c r="M6" t="n">
-        <v>19887.56</v>
+        <v>27272.84</v>
       </c>
       <c r="N6" t="n">
-        <v>2825.95</v>
+        <v>2643.3</v>
       </c>
       <c r="O6" t="n">
-        <v>22713.51</v>
+        <v>29916.14</v>
       </c>
       <c r="P6" t="n">
-        <v>7955.02</v>
+        <v>10909.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>27256.21</v>
+        <v>35899.37</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>АвтоКапітал ПРАТ</t>
+          <t>Українська пожежно-страхова група ПрАТ СК</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>РОКСОЛЯНИ РЕЗИДЕНТ ХОЛ ТОВ</t>
+          <t>ЗБАРАЖ АГРО-ТРЕЙД, ТОВ</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>+38 (067) 9449443</t>
+          <t>+38 (067) 5223939</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>02. Mercedes-Benz G 400 d</t>
+          <t>02. Mercedes-Benz GLE 350 d 4MATIC</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>BC6469OE</t>
+          <t>BO6564CP</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>W1N4633501X426974</t>
+          <t>WDC1660241B052739</t>
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>35241</v>
+        <v>132981</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>25.05.2022</t>
+          <t>07.11.2020</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1199,41 +1199,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>04.07.2024</t>
+          <t>24.07.2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:50:44</t>
+          <t>09:25:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026275 від 09.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026701 від 24.07.2024 09:25:15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Погодження</t>
+          <t>Заявка</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>04.07.2024 11:29:44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Очікування оплати від страхової</t>
+          <t>26.07.2024 11:19:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Відновлювальний ремонт</t>
+          <t>Мийка</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1247,95 +1242,95 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>32727.41</v>
+        <v>715.27</v>
       </c>
       <c r="L7" t="n">
-        <v>3171.96</v>
+        <v>149.52</v>
       </c>
       <c r="M7" t="n">
-        <v>27272.84</v>
+        <v>596.0599999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>2643.3</v>
+        <v>124.6</v>
       </c>
       <c r="O7" t="n">
-        <v>29916.14</v>
+        <v>720.66</v>
       </c>
       <c r="P7" t="n">
-        <v>10909.14</v>
+        <v>238.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>35899.37</v>
+        <v>864.79</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>0.1</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Українська пожежно-страхова група ПрАТ СК</t>
+          <t>Лагутенко Олександр Богданович</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>ЗБАРАЖ АГРО-ТРЕЙД, ТОВ</t>
+          <t>Лагутенко Олександр Богданович</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>+38 (067) 5223939</t>
+          <t>+38 (067) 3530645</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>02. Mercedes-Benz GLE 350 d 4MATIC</t>
+          <t>E 240</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>BO6564CP</t>
+          <t>BC9791AE</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>WDC1660241B052739</t>
+          <t>WDB2110611A322211</t>
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>132981</v>
+        <v>300700</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>07.11.2020</t>
+          <t>14.08.2003</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Юридична особа</t>
+          <t>Приватна особа</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24.07.2024</t>
+          <t>26.07.2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:25:15</t>
+          <t>12:56:22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026701 від 24.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026768 від 26.07.2024 12:56:31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1345,12 +1340,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>26.07.2024 11:19:00</t>
+          <t>26.07.2024 16:00:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Мийка</t>
+          <t>Гарантійний ремонт АвтоКапітал</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1364,81 +1359,81 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>715.27</v>
+        <v>9389.58</v>
       </c>
       <c r="L8" t="n">
-        <v>149.52</v>
+        <v>311.92</v>
       </c>
       <c r="M8" t="n">
-        <v>596.0599999999999</v>
+        <v>7824.65</v>
       </c>
       <c r="N8" t="n">
-        <v>124.6</v>
+        <v>259.93</v>
       </c>
       <c r="O8" t="n">
-        <v>720.66</v>
+        <v>8084.58</v>
       </c>
       <c r="P8" t="n">
-        <v>238.42</v>
+        <v>3129.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>864.79</v>
+        <v>9701.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Лагутенко Олександр Богданович</t>
+          <t>АвтоКапітал ПРАТ</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Лагутенко Олександр Богданович</t>
+          <t>Ферцович Ігор Іванович</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>+38 (067) 3530645</t>
+          <t>+38 (097) 3838196</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>E 240</t>
+          <t>06. Mercedes-Benz GLC 300 e 4MATIC Coupe</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>BC9791AE</t>
+          <t>ВС0316ТЕ</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>WDB2110611A322211</t>
+          <t>W1NKJ5GB0RF155869</t>
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>300700</v>
+        <v>2320</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14.08.2003</t>
+          <t>22.03.2024</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Приватна особа</t>
+          <t>Юридична особа</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1447,22 +1442,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:56:22</t>
+          <t>13:53:46</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026768 від 26.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026771 від 26.07.2024 13:53:46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Заявка</t>
+          <t>Очікування деталей</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>26.07.2024 16:00:00</t>
+          <t>26.07.2024 17:49:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Замовлені запчастини</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1479,27 +1479,18 @@
         <is>
           <t>Не проведен</t>
         </is>
-      </c>
-      <c r="K9" t="n">
-        <v>9389.58</v>
       </c>
       <c r="L9" t="n">
         <v>311.92</v>
       </c>
-      <c r="M9" t="n">
-        <v>7824.65</v>
-      </c>
       <c r="N9" t="n">
         <v>259.93</v>
       </c>
       <c r="O9" t="n">
-        <v>8084.58</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3129.86</v>
+        <v>259.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>9701.5</v>
+        <v>311.92</v>
       </c>
       <c r="R9" t="n">
         <v>0.2</v>
@@ -1511,156 +1502,43 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Ферцович Ігор Іванович</t>
+          <t>Фролов Олег Валентинович</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>+38 (097) 3838196</t>
+          <t>+38 (050) 4282002</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>06. Mercedes-Benz GLC 300 e 4MATIC Coupe</t>
+          <t>R-CLASS</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>ВС0316ТЕ</t>
+          <t>BC3199KB</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>W1NKJ5GB0RF155869</t>
+          <t>WDC2510221A086701</t>
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>2320</v>
+        <v>166068</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>22.03.2024</t>
+          <t>22.08.2008</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
-        <is>
-          <t>Юридична особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>40</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>26.07.2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>13:53:46</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026771 від 26.07.2024</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Очікування деталей</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>26.07.2024 17:49:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Замовлені запчастини</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Гарантійний ремонт АвтоКапітал</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Лагутенко О Б</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>311.92</v>
-      </c>
-      <c r="N10" t="n">
-        <v>259.93</v>
-      </c>
-      <c r="O10" t="n">
-        <v>259.93</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>311.92</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>АвтоКапітал ПРАТ</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Фролов Олег Валентинович</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>+38 (050) 4282002</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>R-CLASS</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>BC3199KB</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>WDC2510221A086701</t>
-        </is>
-      </c>
-      <c r="Y10" t="n">
-        <v>166068</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>22.08.2008</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
         <is>
           <t>Юридична особа</t>
         </is>
